--- a/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/126/stop-words-topk-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="112">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,19 +43,19 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>poor</t>
   </si>
   <si>
     <t>however</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>poor</t>
+    <t>returned</t>
   </si>
   <si>
     <t>disappointed</t>
@@ -64,171 +64,180 @@
     <t>waste</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>returned</t>
+    <t>junk</t>
   </si>
   <si>
     <t>tiny</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>guess</t>
+    <t>plastic</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>plastic</t>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>un</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>less</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>pay</t>
+    <t>di</t>
   </si>
   <si>
     <t>fell</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>half</t>
   </si>
   <si>
-    <t>fl</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>bit</t>
+    <t>money</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>hard</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>back</t>
-  </si>
-  <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>pieces</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
-    <t>put</t>
+    <t>expected</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>3</t>
+    <t>little</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>even</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>much</t>
   </si>
   <si>
@@ -241,21 +250,21 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>fantastic</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>fantastic</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -277,73 +286,67 @@
     <t>great</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>enjoy</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
     <t>family</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>playing</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>good</t>
   </si>
   <si>
     <t>positive</t>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,10 +715,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -794,16 +797,16 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -815,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -823,13 +826,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -841,31 +844,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K4">
+        <v>0.875</v>
+      </c>
+      <c r="L4">
+        <v>49</v>
+      </c>
+      <c r="M4">
+        <v>49</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>7</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4">
-        <v>0.8615384615384616</v>
-      </c>
-      <c r="L4">
-        <v>56</v>
-      </c>
-      <c r="M4">
-        <v>56</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -873,13 +876,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8275862068965517</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -891,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8615384615384616</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -915,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -923,13 +926,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.734375</v>
+        <v>0.7183098591549296</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -941,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6">
+        <v>0.85</v>
+      </c>
+      <c r="L6">
         <v>17</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K6">
-        <v>0.8279569892473119</v>
-      </c>
-      <c r="L6">
-        <v>77</v>
-      </c>
       <c r="M6">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -965,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -973,13 +976,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7142857142857143</v>
+        <v>0.6875</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -991,19 +994,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K7">
-        <v>0.75</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="M7">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1015,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1023,13 +1026,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6901408450704225</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C8">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1041,19 +1044,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K8">
-        <v>0.703125</v>
+        <v>0.75</v>
       </c>
       <c r="L8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1073,13 +1076,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.6774193548387096</v>
       </c>
       <c r="C9">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D9">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1091,19 +1094,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K9">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1115,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1123,13 +1126,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6486486486486487</v>
+        <v>0.6418918918918919</v>
       </c>
       <c r="C10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1141,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K10">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1165,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1173,13 +1176,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6213592233009708</v>
+        <v>0.6050420168067226</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1191,19 +1194,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K11">
-        <v>0.6086956521739131</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1215,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1223,13 +1226,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6052631578947368</v>
+        <v>0.587378640776699</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1241,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K12">
-        <v>0.5480631276901005</v>
+        <v>0.533715925394548</v>
       </c>
       <c r="L12">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="M12">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1265,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1273,13 +1276,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1291,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K13">
-        <v>0.504149377593361</v>
+        <v>0.5145228215767634</v>
       </c>
       <c r="L13">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M13">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1315,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1323,13 +1326,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5833333333333334</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1341,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K14">
-        <v>0.4459016393442623</v>
+        <v>0.4450819672131148</v>
       </c>
       <c r="L14">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M14">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1365,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1394,16 +1397,16 @@
         <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K15">
-        <v>0.3554216867469879</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="L15">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M15">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1415,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>107</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1423,13 +1426,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5636363636363636</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1441,19 +1444,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K16">
-        <v>0.3492063492063492</v>
+        <v>0.3554216867469879</v>
       </c>
       <c r="L16">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M16">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1465,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1473,13 +1476,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5630252100840336</v>
+        <v>0.5</v>
       </c>
       <c r="C17">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D17">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1491,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K17">
-        <v>0.3486238532110092</v>
+        <v>0.3425076452599388</v>
       </c>
       <c r="L17">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M17">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1523,13 +1526,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5555555555555556</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1541,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K18">
-        <v>0.3018867924528302</v>
+        <v>0.325</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1565,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1573,13 +1576,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5072463768115942</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C19">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>175</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1591,19 +1594,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K19">
-        <v>0.2833333333333333</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L19">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M19">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1615,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>86</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1623,13 +1626,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1641,31 +1644,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K20">
-        <v>0.2236842105263158</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="N20">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>59</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1673,13 +1676,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1691,19 +1694,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K21">
-        <v>0.2150537634408602</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L21">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="M21">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1715,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>146</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1723,13 +1726,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4666666666666667</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1741,19 +1744,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K22">
-        <v>0.203125</v>
+        <v>0.2150537634408602</v>
       </c>
       <c r="L22">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M22">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1765,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1773,13 +1776,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4444444444444444</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C23">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D23">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1791,31 +1794,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K23">
-        <v>0.1746031746031746</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>104</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1823,13 +1826,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3886255924170616</v>
+        <v>0.4</v>
       </c>
       <c r="C24">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="D24">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1841,19 +1844,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>129</v>
+        <v>27</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="K24">
-        <v>0.1724137931034483</v>
+        <v>0.203125</v>
       </c>
       <c r="L24">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1865,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>72</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1873,38 +1876,38 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3858267716535433</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="C25">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>0.1967871485943775</v>
+      </c>
+      <c r="L25">
         <v>49</v>
       </c>
-      <c r="D25">
+      <c r="M25">
         <v>49</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>78</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K25">
-        <v>0.1686746987951807</v>
-      </c>
-      <c r="L25">
-        <v>42</v>
-      </c>
-      <c r="M25">
-        <v>42</v>
-      </c>
       <c r="N25">
         <v>1</v>
       </c>
@@ -1915,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1923,13 +1926,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3809523809523809</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1941,19 +1944,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K26">
-        <v>0.1678321678321678</v>
+        <v>0.184</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1965,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>119</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1973,13 +1976,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3789473684210526</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C27">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1991,19 +1994,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K27">
-        <v>0.1623931623931624</v>
+        <v>0.1748251748251748</v>
       </c>
       <c r="L27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M27">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2015,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>98</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2023,13 +2026,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3673469387755102</v>
+        <v>0.3791469194312796</v>
       </c>
       <c r="C28">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2041,13 +2044,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K28">
-        <v>0.16</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L28">
         <v>20</v>
@@ -2065,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2073,13 +2076,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3650793650793651</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2091,19 +2094,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K29">
-        <v>0.147239263803681</v>
+        <v>0.1498685363716039</v>
       </c>
       <c r="L29">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M29">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2115,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>973</v>
+        <v>970</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2123,13 +2126,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3636363636363636</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2141,19 +2144,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K30">
-        <v>0.08356545961002786</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2165,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>329</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2173,13 +2176,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3493975903614458</v>
+        <v>0.3359375</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2191,19 +2194,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K31">
-        <v>0.08171206225680934</v>
+        <v>0.07799442896935933</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2215,7 +2218,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>236</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2223,13 +2226,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.34375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2241,31 +2244,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="K32">
-        <v>0.08021390374331551</v>
+        <v>0.07532467532467532</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="M32">
-        <v>30</v>
+        <v>117</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>344</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2273,13 +2276,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3359375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C33">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2291,31 +2294,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K33">
-        <v>0.07727272727272727</v>
+        <v>0.06206896551724138</v>
       </c>
       <c r="L33">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="N33">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1421</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2323,13 +2326,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2341,19 +2344,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K34">
-        <v>0.06172839506172839</v>
+        <v>0.05864197530864197</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2365,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2373,7 +2376,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3148148148148148</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C35">
         <v>17</v>
@@ -2391,31 +2394,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K35">
-        <v>0.05172413793103448</v>
+        <v>0.03866666666666667</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>275</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2423,13 +2426,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.293103448275862</v>
+        <v>0.2821782178217822</v>
       </c>
       <c r="C36">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2441,31 +2444,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>41</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K36">
-        <v>0.04793608521970705</v>
-      </c>
-      <c r="L36">
-        <v>36</v>
-      </c>
-      <c r="M36">
-        <v>37</v>
-      </c>
-      <c r="N36">
-        <v>0.97</v>
-      </c>
-      <c r="O36">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P36" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36">
-        <v>715</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2493,43 +2472,19 @@
       <c r="H37">
         <v>64</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K37">
-        <v>0.02553191489361702</v>
-      </c>
-      <c r="L37">
-        <v>18</v>
-      </c>
-      <c r="M37">
-        <v>18</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>687</v>
-      </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2722772277227723</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C38">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="D38">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2541,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>147</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2575,13 +2530,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2136752136752137</v>
+        <v>0.2653061224489796</v>
       </c>
       <c r="C40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2593,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2601,13 +2556,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.211340206185567</v>
+        <v>0.2628865979381443</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D41">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2619,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2627,13 +2582,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2040816326530612</v>
+        <v>0.2136752136752137</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2645,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2653,13 +2608,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.19</v>
+        <v>0.1772151898734177</v>
       </c>
       <c r="C43">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D43">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2671,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>162</v>
+        <v>260</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2679,25 +2634,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1869158878504673</v>
+        <v>0.1750741839762611</v>
       </c>
       <c r="C44">
-        <v>20</v>
+        <v>118</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="E44">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>87</v>
+        <v>556</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2705,25 +2660,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.180379746835443</v>
+        <v>0.1642651296829971</v>
       </c>
       <c r="C45">
         <v>57</v>
       </c>
       <c r="D45">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>259</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2731,13 +2686,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.177536231884058</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C46">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D46">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2749,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2757,13 +2712,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1661721068249258</v>
+        <v>0.1571428571428571</v>
       </c>
       <c r="C47">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="D47">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2775,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>562</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2783,13 +2738,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1580459770114943</v>
+        <v>0.1401869158878505</v>
       </c>
       <c r="C48">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D48">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2801,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>293</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2809,13 +2764,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1550632911392405</v>
+        <v>0.14</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D49">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2827,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>267</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2835,13 +2790,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1440677966101695</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C50">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="D50">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2853,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>101</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2861,13 +2816,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1428571428571428</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2879,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2887,13 +2842,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1255506607929515</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="C52">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="D52">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2905,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>397</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2913,13 +2868,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1214953271028037</v>
+        <v>0.1211453744493392</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="D53">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2931,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>188</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2939,25 +2894,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1202185792349727</v>
+        <v>0.1165413533834586</v>
       </c>
       <c r="C54">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D54">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>161</v>
+        <v>235</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2965,7 +2920,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1146496815286624</v>
+        <v>0.1028571428571429</v>
       </c>
       <c r="C55">
         <v>18</v>
@@ -2983,7 +2938,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>139</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2991,13 +2946,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1086142322097378</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="C56">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D56">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3009,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>238</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3017,13 +2972,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1085714285714286</v>
+        <v>0.0949367088607595</v>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3035,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3043,25 +2998,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1052631578947368</v>
+        <v>0.09289617486338798</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E58">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3069,13 +3024,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1038961038961039</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3087,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>138</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3095,25 +3050,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.08108108108108109</v>
+        <v>0.08854166666666667</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E60">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3121,25 +3076,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07671232876712329</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="C61">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D61">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>337</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3147,25 +3102,25 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.07661290322580645</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>229</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3173,13 +3128,13 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.07323943661971831</v>
+        <v>0.07661290322580645</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D63">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -3191,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>329</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3199,25 +3154,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.066006600660066</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="C64">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D64">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E64">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>566</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3225,22 +3180,22 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.05803571428571429</v>
+        <v>0.06013363028953229</v>
       </c>
       <c r="C65">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D65">
         <v>27</v>
       </c>
       <c r="E65">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
         <v>422</v>
@@ -3251,25 +3206,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04408352668213457</v>
+        <v>0.05649717514124294</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D66">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E66">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="F66">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>412</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3277,25 +3232,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03295310519645121</v>
+        <v>0.05376344086021505</v>
       </c>
       <c r="C67">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D67">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E67">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="F67">
-        <v>0.84</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G67" t="b">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>763</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3303,25 +3258,103 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.02756508422664625</v>
+        <v>0.05271828665568369</v>
       </c>
       <c r="C68">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D68">
+        <v>33</v>
+      </c>
+      <c r="E68">
+        <v>0.03</v>
+      </c>
+      <c r="F68">
+        <v>0.97</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.05128205128205128</v>
+      </c>
+      <c r="C69">
+        <v>22</v>
+      </c>
+      <c r="D69">
+        <v>27</v>
+      </c>
+      <c r="E69">
+        <v>0.19</v>
+      </c>
+      <c r="F69">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.04309252217997465</v>
+      </c>
+      <c r="C70">
+        <v>34</v>
+      </c>
+      <c r="D70">
+        <v>39</v>
+      </c>
+      <c r="E70">
+        <v>0.13</v>
+      </c>
+      <c r="F70">
+        <v>0.87</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.03058103975535168</v>
+      </c>
+      <c r="C71">
         <v>20</v>
       </c>
-      <c r="E68">
-        <v>0.1</v>
-      </c>
-      <c r="F68">
-        <v>0.9</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>635</v>
+      <c r="D71">
+        <v>21</v>
+      </c>
+      <c r="E71">
+        <v>0.05</v>
+      </c>
+      <c r="F71">
+        <v>0.95</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>634</v>
       </c>
     </row>
   </sheetData>
